--- a/src/main/resources/Sample - 排程整理.xlsx
+++ b/src/main/resources/Sample - 排程整理.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicole_tsou\Dropbox\POST\POST-ParseXML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CC6938-0CEC-44FE-91E4-E5AB8289E2C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAB0F42-FE37-42DD-B5CD-721266DCF73F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{68ACB6F2-940B-4DF5-8CBD-385996C0E3D7}"/>
   </bookViews>
@@ -443,10 +443,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FB7374-0451-4864-9C9D-42B2E051C0B5}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
